--- a/backend-calderon/data2/C13_SALVE_FACCHA_Mensual-Multianual.xlsx
+++ b/backend-calderon/data2/C13_SALVE_FACCHA_Mensual-Multianual.xlsx
@@ -795,7 +795,7 @@
         <v>89.40000000000001</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11</v>
+        <v>48.5</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>11.4</v>
@@ -1050,7 +1050,9 @@
       <c r="F21" s="5" t="n">
         <v>291.1</v>
       </c>
-      <c r="G21" s="5" t="n"/>
+      <c r="G21" s="5" t="n">
+        <v>287.3</v>
+      </c>
       <c r="H21" s="5" t="n"/>
       <c r="I21" s="5" t="n"/>
       <c r="J21" s="5" t="n"/>
